--- a/WAZIR_JUNE_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
+++ b/WAZIR_JUNE_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -133,13 +133,16 @@
   </si>
   <si>
     <t>June</t>
+  </si>
+  <si>
+    <t>21ME20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -220,12 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,12 +243,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -333,9 +336,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,31 +380,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -447,11 +435,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -491,7 +482,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -795,8 +786,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -805,7 +796,7 @@
     <col min="2" max="2" width="22.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="7.8984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.8984375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="7.8984375" style="23" customWidth="1"/>
     <col min="6" max="6" width="7.8984375" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.296875" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.09765625" style="4" customWidth="1"/>
@@ -814,26 +805,26 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -841,21 +832,21 @@
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -863,21 +854,21 @@
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -885,11 +876,11 @@
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -897,29 +888,29 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -927,15 +918,15 @@
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -946,10 +937,10 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -958,18 +949,20 @@
       <c r="D10" s="14">
         <v>2</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="15">
+        <v>9</v>
+      </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="15" t="s">
         <v>13</v>
       </c>
@@ -982,244 +975,314 @@
       <c r="F11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="15">
         <v>3</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15">
+        <v>3</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="14">
-        <v>9</v>
-      </c>
-      <c r="H12" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="H12" s="18">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17">
         <v>1</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
         <v>3</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="21">
-        <f>(G14/9)*100</f>
-        <v>0</v>
+      <c r="G14" s="17">
+        <f>SUM(D14:F14)</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="20">
+        <f>(G14/6)*100</f>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17">
         <v>2</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="38" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17">
         <v>3</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="17">
+        <v>3</v>
+      </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="21">
-        <f t="shared" ref="H15:H23" si="0">(G15/9)*100</f>
-        <v>0</v>
+      <c r="G15" s="17">
+        <f t="shared" ref="G15:G24" si="0">SUM(D15:F15)</f>
+        <v>6</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" ref="H15:H24" si="1">(G15/6)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17">
         <v>3</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17">
         <v>3</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="17">
+        <v>3</v>
+      </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="21">
+      <c r="G16" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="17">
+        <v>5</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17">
+        <v>3</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="17">
+        <v>6</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17">
+        <v>3</v>
+      </c>
+      <c r="E19" s="17">
+        <v>3</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="17">
+        <v>7</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17">
+        <v>3</v>
+      </c>
+      <c r="E20" s="17">
+        <v>3</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="17">
+        <v>8</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17">
+        <v>3</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="17">
+        <v>9</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17">
+        <v>3</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="17">
+        <v>10</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="19">
-        <v>4</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="21">
+      <c r="H23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="17">
+        <v>11</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="17">
+        <v>3</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="19">
-        <v>5</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17">
-        <v>3</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17">
-        <v>3</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="19">
-        <v>7</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17">
-        <v>3</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17">
-        <v>3</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="18">
-        <v>8</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17">
-        <v>3</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="19">
-        <v>9</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="17">
-        <v>3</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C26" s="9" t="s">
